--- a/Баг-репорт.xlsx
+++ b/Баг-репорт.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
   <si>
     <t>Идентификатор дефекта</t>
   </si>
@@ -331,6 +331,10 @@
   </si>
   <si>
     <t>Trivial</t>
+  </si>
+  <si>
+    <t>Окружение : OS Windows 11
+Google Chrome Версия 125.0.6422.142, (64 бит)</t>
   </si>
 </sst>
 </file>
@@ -377,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -400,11 +404,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -430,6 +460,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,7 +1129,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1380,9 +1414,11 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
+    <row r="11" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -3443,6 +3479,9 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E66">
       <formula1>"Asap,High,Normal,Low"</formula1>
